--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -4,44 +4,44 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28455" windowHeight="11970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工业化工原料" sheetId="1" r:id="rId1"/>
     <sheet name="环保处理原料" sheetId="2" r:id="rId2"/>
     <sheet name="食用化工原料" sheetId="3" r:id="rId3"/>
-    <sheet name="化学试剂、仪器 " sheetId="4" r:id="rId4"/>
-    <sheet name="艺术涂料 " sheetId="5" r:id="rId5"/>
+    <sheet name="化学试剂仪器" sheetId="4" r:id="rId4"/>
+    <sheet name="艺术涂料" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411">
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>英文名</t>
-  </si>
-  <si>
-    <t>分子式</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>otherName</t>
+  </si>
+  <si>
+    <t>enName</t>
+  </si>
+  <si>
+    <t>formula</t>
   </si>
   <si>
     <t>CAS</t>
   </si>
   <si>
-    <t>性状</t>
-  </si>
-  <si>
-    <t>用途</t>
-  </si>
-  <si>
-    <t>用法</t>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>userInfo</t>
+  </si>
+  <si>
+    <t>howUse</t>
   </si>
   <si>
     <r>
@@ -1186,34 +1186,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水玻璃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>水玻璃</t>
   </si>
   <si>
     <t xml:space="preserve">Na2O·mSiO2 </t>
@@ -2667,33 +2640,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>磷酸氢二钠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+    <t>磷酸氢二钠</t>
   </si>
   <si>
     <t xml:space="preserve">Dibasic Sodium Phosphate
@@ -2830,8 +2777,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">葡萄糖酸钠
-</t>
+    <t>葡萄糖酸钠</t>
   </si>
   <si>
     <t xml:space="preserve">D-葡萄糖酸钠
@@ -2937,34 +2883,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无水氯化钙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>无水氯化钙</t>
   </si>
   <si>
     <t xml:space="preserve">CaCl2 </t>
@@ -8886,9 +8805,6 @@
     <t>无水葡萄糖</t>
   </si>
   <si>
-    <t>葡萄糖酸钠</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -9044,16 +8960,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9077,6 +9000,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -9090,9 +9020,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9115,120 +9152,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="BatangChe"/>
       <charset val="129"/>
     </font>
@@ -9242,19 +9165,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9266,7 +9225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9278,13 +9249,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9302,43 +9285,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9350,43 +9321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9398,31 +9345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9433,35 +9356,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9476,21 +9370,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9512,9 +9391,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9533,155 +9447,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9689,17 +9612,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9708,16 +9637,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9779,55 +9708,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>32715</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Administrator\Pictures\玻璃仪器图片.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8591550" y="1876425"/>
-          <a:ext cx="5274310" cy="4852035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10118,20 +9998,23 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
+    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10144,7 +10027,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -10158,47 +10041,47 @@
       </c>
     </row>
     <row r="2" ht="42" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="42" customHeight="1" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -10207,19 +10090,19 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -10228,41 +10111,41 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:7">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
@@ -10271,21 +10154,21 @@
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
@@ -10294,19 +10177,19 @@
       <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:7">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D9" t="s">
@@ -10315,21 +10198,21 @@
       <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:7">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D10" t="s">
@@ -10338,19 +10221,19 @@
       <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
@@ -10359,40 +10242,40 @@
       <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:7">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" t="s">
         <v>71</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
@@ -10401,21 +10284,21 @@
       <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:7">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D14" t="s">
@@ -10424,21 +10307,21 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:7">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D15" t="s">
@@ -10447,21 +10330,21 @@
       <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:7">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D16" t="s">
@@ -10470,21 +10353,21 @@
       <c r="E16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:7">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D17" t="s">
@@ -10493,44 +10376,44 @@
       <c r="E17" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:7">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:7">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D19" t="s">
@@ -10539,21 +10422,21 @@
       <c r="E19" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:7">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D20" t="s">
@@ -10562,21 +10445,21 @@
       <c r="E20" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:7">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D21" t="s">
@@ -10585,21 +10468,21 @@
       <c r="E21" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:7">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D22" t="s">
@@ -10608,19 +10491,19 @@
       <c r="E22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D23" t="s">
@@ -10629,19 +10512,19 @@
       <c r="E23" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:7">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D24" t="s">
@@ -10650,19 +10533,19 @@
       <c r="E24" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:7">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="14" t="s">
         <v>152</v>
       </c>
       <c r="D25" t="s">
@@ -10671,21 +10554,21 @@
       <c r="E25" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:7">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D26" t="s">
@@ -10694,21 +10577,21 @@
       <c r="E26" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D27" t="s">
@@ -10717,19 +10600,19 @@
       <c r="E27" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:7">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="14" t="s">
         <v>171</v>
       </c>
       <c r="D28" t="s">
@@ -10738,21 +10621,21 @@
       <c r="E28" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:7">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D29" t="s">
@@ -10761,19 +10644,19 @@
       <c r="E29" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D30" t="s">
@@ -10782,21 +10665,21 @@
       <c r="E30" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="15" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:7">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D31" t="s">
@@ -10805,37 +10688,37 @@
       <c r="E31" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:7">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="14" t="s">
         <v>197</v>
       </c>
       <c r="E32" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="15" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:7">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D33" t="s">
@@ -10844,19 +10727,19 @@
       <c r="E33" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:7">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D34" t="s">
@@ -10865,19 +10748,19 @@
       <c r="E34" t="s">
         <v>208</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:7">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="14" t="s">
         <v>210</v>
       </c>
       <c r="D35" t="s">
@@ -10886,21 +10769,21 @@
       <c r="E35" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="15" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:7">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
         <v>217</v>
       </c>
       <c r="D36" t="s">
@@ -10909,21 +10792,21 @@
       <c r="E36" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="15" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:7">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D37" t="s">
@@ -10932,21 +10815,21 @@
       <c r="E37" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:7">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>231</v>
       </c>
       <c r="D38" t="s">
@@ -10955,21 +10838,21 @@
       <c r="E38" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="15" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:7">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>238</v>
       </c>
       <c r="D39" t="s">
@@ -10978,121 +10861,121 @@
       <c r="E39" t="s">
         <v>240</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="15" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="40" ht="42" customHeight="1" spans="1:7">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="14"/>
       <c r="D40" t="s">
         <v>245</v>
       </c>
       <c r="E40" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="15" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:7">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="12"/>
+      <c r="C41" s="14"/>
       <c r="D41" t="s">
         <v>249</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="15" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:7">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
       <c r="D42" t="s">
         <v>253</v>
       </c>
       <c r="E42" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:7">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="14"/>
       <c r="D43" t="s">
         <v>257</v>
       </c>
       <c r="E43" t="s">
         <v>258</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="15" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:7">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="12"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="14"/>
       <c r="D44" t="s">
         <v>262</v>
       </c>
       <c r="E44" t="s">
         <v>263</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="15" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:7">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="14"/>
       <c r="D45" t="s">
         <v>267</v>
       </c>
       <c r="E45" t="s">
         <v>268</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="15" t="s">
         <v>270</v>
       </c>
     </row>
@@ -11109,9 +10992,9 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -11123,7 +11006,7 @@
     <col min="8" max="8" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
+    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11136,7 +11019,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -11149,513 +11032,513 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>2594446</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>2594446</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>2594446</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A8" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A9" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
+    <row r="11" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A11" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A12" s="5" t="s">
+    <row r="12" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A12" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>2120447</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A13" s="5" t="s">
+    <row r="13" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A13" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A14" s="5" t="s">
+    <row r="14" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A15" s="5" t="s">
+    <row r="15" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:7">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:7">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" ht="42" customHeight="1" spans="1:7">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:7">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:7">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:7">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11674,7 +11557,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -11684,7 +11567,7 @@
     <col min="7" max="7" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
+    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11697,7 +11580,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -11710,261 +11593,261 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A8" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A9" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
+    <row r="11" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A12" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
-    <row r="13" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A13" s="6" t="s">
+    <row r="13" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A13" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="B13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A14" s="4" t="s">
+    <row r="14" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5" t="s">
+      <c r="B14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A15" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="B15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="7"/>
     </row>
-    <row r="16" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A16" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A17" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
-    <row r="18" s="4" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A18" s="7" t="s">
+    <row r="18" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -11979,12 +11862,13 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12000,7 +11884,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -12014,28 +11898,27 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>409</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12045,10 +11928,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -12063,7 +11949,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -12077,8 +11963,8 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>410</v>
+      <c r="A2" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="11970" activeTab="4"/>
+    <workbookView windowWidth="16800" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="工业化工原料" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>img</t>
+  </si>
+  <si>
     <t>otherName</t>
   </si>
   <si>
@@ -44,34 +47,10 @@
     <t>howUse</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>磷酸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>磷酸</t>
+  </si>
+  <si>
+    <t>1_0.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">正磷酸
@@ -117,24 +96,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>片碱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>片碱</t>
+  </si>
+  <si>
+    <t>1_1.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">氢氧化钠 </t>
@@ -152,24 +117,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电镀级氯化钾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>电镀级氯化钾</t>
+  </si>
+  <si>
+    <t>1_2.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">氯化钾 </t>
@@ -193,25 +144,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氟化钠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>氟化钠</t>
+  </si>
+  <si>
+    <t>1_3.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Sodium Fluoride
@@ -420,15 +356,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>硫酸钴</t>
-    </r>
+    <t>硫酸钴</t>
+  </si>
+  <si>
+    <t>1_4.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">赤矾,硫酸亚钴
@@ -451,34 +382,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>硫酸铜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>硫酸铜</t>
+  </si>
+  <si>
+    <t>1_5.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">胆矾
@@ -628,24 +535,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>焦磷酸钾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+    <t>焦磷酸钾</t>
+  </si>
+  <si>
+    <t>1_6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">焦磷酸四钾
@@ -786,24 +679,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>硼酸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>硼酸</t>
+  </si>
+  <si>
+    <t>1_7.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Orthoboric acid
@@ -863,33 +742,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>草酸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+    <t>草酸</t>
+  </si>
+  <si>
+    <t>1_8.jpg</t>
   </si>
   <si>
     <t>乙二酸</t>
@@ -1118,6 +974,9 @@
     </r>
   </si>
   <si>
+    <t>1_9.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">sodium sulfite
 </t>
   </si>
@@ -1189,6 +1048,9 @@
     <t>水玻璃</t>
   </si>
   <si>
+    <t>1_10.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na2O·mSiO2 </t>
   </si>
   <si>
@@ -1223,6 +1085,9 @@
     </r>
   </si>
   <si>
+    <t>1_11.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">片碱 </t>
   </si>
   <si>
@@ -1236,25 +1101,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钛白粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>钛白粉</t>
+  </si>
+  <si>
+    <t>1_12.jpg</t>
   </si>
   <si>
     <t>二氧化钛</t>
@@ -1343,6 +1193,9 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
+  </si>
+  <si>
+    <t>1_13.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">2',2''-三羟基三乙胺 氨基三乙醇
@@ -1401,6 +1254,9 @@
     <t>硫化碱（红片）</t>
   </si>
   <si>
+    <t>1_14.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">硫化钠 </t>
   </si>
   <si>
@@ -1446,6 +1302,9 @@
     </r>
   </si>
   <si>
+    <t>1_15.jpg</t>
+  </si>
+  <si>
     <t>1313-82-21</t>
   </si>
   <si>
@@ -1457,34 +1316,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三聚磷酸钠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>三聚磷酸钠</t>
+  </si>
+  <si>
+    <t>1_16.jpg</t>
   </si>
   <si>
     <r>
@@ -1772,25 +1607,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>十二烷基硫酸钠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>十二烷基硫酸钠</t>
+  </si>
+  <si>
+    <t>1_17.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">椰油醇（或月桂醇）硫酸钠、K12、发泡剂等
@@ -1978,6 +1798,9 @@
     </r>
   </si>
   <si>
+    <t>1_18.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">纯碱
 </t>
   </si>
@@ -2020,6 +1843,9 @@
     </r>
   </si>
   <si>
+    <t>1_19.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">磺酰胺酸;氨磺酸;磺酸胺;磺酸氨;胺磺酸
 </t>
   </si>
@@ -2088,6 +1914,9 @@
     </r>
   </si>
   <si>
+    <t>1_20.jpg</t>
+  </si>
+  <si>
     <t>钾肥</t>
   </si>
   <si>
@@ -2109,14 +1938,38 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尿素</t>
+    <t>尿素</t>
+  </si>
+  <si>
+    <t>1_21.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaminomethanal
+</t>
+  </si>
+  <si>
+    <t>CO(NH2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57-13-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">无色或白色针状或棒状结晶体，工业或农业品为白色略带微红色固体颗粒，
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">农业应用，医学应用，商业应用，实验室应用，饲料添加剂，在化妆品中的应用，工业应用。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硫酸钾</t>
     </r>
     <r>
       <rPr>
@@ -2129,32 +1982,35 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Diaminomethanal
-</t>
-  </si>
-  <si>
-    <t>CO(NH2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57-13-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">无色或白色针状或棒状结晶体，工业或农业品为白色略带微红色固体颗粒，
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">农业应用，医学应用，商业应用，实验室应用，饲料添加剂，在化妆品中的应用，工业应用。
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>硫酸钾</t>
+    <t>1_22.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potassium sulphate
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2SO4 </t>
+  </si>
+  <si>
+    <t>7778-80-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无色或白色六方形或斜方晶系结晶或颗粒状粉末。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是制造各种钾盐如碳酸钾、过硫酸钾等的基本原料，硫酸钾在农业上是常用的钾肥，此外，在工业上还用于玻璃，染料，香料，医药等。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农用氯化铵</t>
     </r>
     <r>
       <rPr>
@@ -2167,42 +2023,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Potassium sulphate
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K2SO4 </t>
-  </si>
-  <si>
-    <t>7778-80-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无色或白色六方形或斜方晶系结晶或颗粒状粉末。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是制造各种钾盐如碳酸钾、过硫酸钾等的基本原料，硫酸钾在农业上是常用的钾肥，此外，在工业上还用于玻璃，染料，香料，医药等。
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>农用氯化铵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+    <t>1_23.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">ammonium chloride
@@ -2223,25 +2044,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>农用硫酸镁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>农用硫酸镁</t>
+  </si>
+  <si>
+    <t>1_24.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">泻盐，硫苦、苦盐、泻利盐 </t>
@@ -2289,6 +2095,9 @@
     </r>
   </si>
   <si>
+    <t>1_25.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">四硼酸钠 </t>
   </si>
   <si>
@@ -2330,6 +2139,9 @@
     </r>
   </si>
   <si>
+    <t>1_26.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ammonium sulfate
 </t>
   </si>
@@ -2466,6 +2278,9 @@
     </r>
   </si>
   <si>
+    <t>1_27.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">磷酸一铵
 </t>
   </si>
@@ -2643,6 +2458,9 @@
     <t>磷酸氢二钠</t>
   </si>
   <si>
+    <t>1_28.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dibasic Sodium Phosphate
 </t>
   </si>
@@ -2778,6 +2596,9 @@
   </si>
   <si>
     <t>葡萄糖酸钠</t>
+  </si>
+  <si>
+    <t>1_29.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">D-葡萄糖酸钠
@@ -2834,6 +2655,9 @@
     </r>
   </si>
   <si>
+    <t>1_30.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Epoxy resin
 </t>
   </si>
@@ -2869,6 +2693,9 @@
     </r>
   </si>
   <si>
+    <t>1_31.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CaCl2.2H2O </t>
   </si>
   <si>
@@ -2910,6 +2737,9 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
+  </si>
+  <si>
+    <t>1_33.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Sodium Hydrogen Sulfite
@@ -2951,6 +2781,9 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
+  </si>
+  <si>
+    <t>1_34.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">性钾、苛性碱、钾灰
@@ -3061,6 +2894,9 @@
     </r>
   </si>
   <si>
+    <t>1_35.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">钾碱
 </t>
   </si>
@@ -3147,25 +2983,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>丙二醇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>丙二醇</t>
+  </si>
+  <si>
+    <t>1_36.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">1,2-丙二醇
@@ -3215,6 +3036,9 @@
     </r>
   </si>
   <si>
+    <t>1_37.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">一水硫酸锰
 </t>
   </si>
@@ -3466,6 +3290,9 @@
     </r>
   </si>
   <si>
+    <t>1_38.jpg</t>
+  </si>
+  <si>
     <t>融雪盐 环保盐</t>
   </si>
   <si>
@@ -3479,8 +3306,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">磷酸氢二钾（工业级）
-</t>
+    <t>磷酸氢二钾（工业级）</t>
+  </si>
+  <si>
+    <t>1_39.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">K2HPO4·3H2O </t>
@@ -3614,25 +3443,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>苯甲酸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
+    <t>苯甲酸</t>
+  </si>
+  <si>
+    <t>1_40.jpg</t>
   </si>
   <si>
     <t>C6H5COOH</t>
@@ -3782,6 +3596,9 @@
     </r>
   </si>
   <si>
+    <t>1_41.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">H8N2O6S </t>
   </si>
   <si>
@@ -3894,33 +3711,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>硫酸锌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+    <t>硫酸锌</t>
+  </si>
+  <si>
+    <t>1_42.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">ZnSO4 </t>
@@ -4128,24 +3922,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氯化锌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>氯化锌</t>
+  </si>
+  <si>
+    <t>1_43.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">ZnCl2 </t>
@@ -4406,34 +4186,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>饮用水聚合氯化铝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>饮用水聚合氯化铝</t>
+  </si>
+  <si>
+    <t>2_0.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Poly Aluminium Chloride
@@ -5013,12 +4769,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>聚合氯化铝</t>
     </r>
     <r>
@@ -5030,6 +4780,9 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
+  </si>
+  <si>
+    <t>2_1.jpg</t>
   </si>
   <si>
     <t xml:space="preserve"> ⒈城市给排水净化：河流水、水库水、地下水。
@@ -5481,34 +5234,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>聚合硫酸铁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>聚合硫酸铁</t>
+  </si>
+  <si>
+    <t>2_2.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">聚铁  SPFS
@@ -5570,6 +5299,9 @@
     </r>
   </si>
   <si>
+    <t>2_3.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poly acrylamide
 </t>
   </si>
@@ -5815,6 +5547,9 @@
     </r>
   </si>
   <si>
+    <t>2_4.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poly acrylamide
 </t>
   </si>
@@ -6082,6 +5817,9 @@
     </r>
   </si>
   <si>
+    <t>2_5.jpg</t>
+  </si>
+  <si>
     <t>Poly acrylamide</t>
   </si>
   <si>
@@ -6329,6 +6067,9 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
+  </si>
+  <si>
+    <t>2_6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">绿矾
@@ -6365,8 +6106,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">硫酸铝
-</t>
+    <t>硫酸铝</t>
+  </si>
+  <si>
+    <t>2_7.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">aluminium sulfate
@@ -6414,6 +6157,9 @@
     </r>
   </si>
   <si>
+    <t>2_8.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">次氯酸钙
 </t>
   </si>
@@ -6471,6 +6217,9 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
+  </si>
+  <si>
+    <t>2_9.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Activated Carbon
@@ -6518,6 +6267,9 @@
     </r>
   </si>
   <si>
+    <t>2_10.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">氯化铁
 </t>
   </si>
@@ -6538,6 +6290,43 @@
 </t>
   </si>
   <si>
+    <t>醋酸钠</t>
+  </si>
+  <si>
+    <t>2_11.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乙酸钠
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetic acid, sodium salt
+</t>
+  </si>
+  <si>
+    <t>CH3COONA</t>
+  </si>
+  <si>
+    <t>6131-90-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无色透明结晶或白色颗粒
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.测定铅、锌、铝、铁、钴、锑、镍和锡。络合稳定剂。乙酰化作用的辅助剂。缓冲剂。干燥剂。媒染剂。2.用于测定铅、锌、铝、铁、钴、锑、镍、锡。用作有机合成的酯化剂以及摄影药品、医药、印染媒染剂、缓冲剂、化学试剂、肉类防腐、颜料、鞣革等许多方面。3.用作缓冲剂、调味剂、增香剂及ph值调节剂。作为调味剂的缓冲剂，可缓和不良气味并防止变色改善风味时使用0.1%～0.3%。具有一定的防霉作用，如使用0.1%～0.3%于鱼肉糜制品及面包。亦可用作调味酱、酸菜、蛋黄酱、鱼糕、香肠、面包、黏糕等的酸味剂。与甲基纤维素、磷酸盐等混合，用于提高香肠、面包、黏糕等的保存性。4.用作硫黄调节型氯丁橡胶炼焦的防焦剂，用量一般为0.5质量份。还可用作动物胶的交联剂。5.本品可用于碱性电镀锡的添加，但对镀层及电镀过程并无明显影响，不是必要成分。乙酸钠常用作缓冲剂，如用于酸性镀锌、碱性镀锡和化学镀镍。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢氧化钙</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6547,58 +6336,32 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>醋酸钠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">乙酸钠
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetic acid, sodium salt
-</t>
-  </si>
-  <si>
-    <t>CH3COONA</t>
-  </si>
-  <si>
-    <t>6131-90-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无色透明结晶或白色颗粒
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.测定铅、锌、铝、铁、钴、锑、镍和锡。络合稳定剂。乙酰化作用的辅助剂。缓冲剂。干燥剂。媒染剂。2.用于测定铅、锌、铝、铁、钴、锑、镍、锡。用作有机合成的酯化剂以及摄影药品、医药、印染媒染剂、缓冲剂、化学试剂、肉类防腐、颜料、鞣革等许多方面。3.用作缓冲剂、调味剂、增香剂及ph值调节剂。作为调味剂的缓冲剂，可缓和不良气味并防止变色改善风味时使用0.1%～0.3%。具有一定的防霉作用，如使用0.1%～0.3%于鱼肉糜制品及面包。亦可用作调味酱、酸菜、蛋黄酱、鱼糕、香肠、面包、黏糕等的酸味剂。与甲基纤维素、磷酸盐等混合，用于提高香肠、面包、黏糕等的保存性。4.用作硫黄调节型氯丁橡胶炼焦的防焦剂，用量一般为0.5质量份。还可用作动物胶的交联剂。5.本品可用于碱性电镀锡的添加，但对镀层及电镀过程并无明显影响，不是必要成分。乙酸钠常用作缓冲剂，如用于酸性镀锌、碱性镀锡和化学镀镍。
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氢氧化钙</t>
-    </r>
+  </si>
+  <si>
+    <t>2_12.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熟石灰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcium Hydroxide
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca(OH)2 </t>
+  </si>
+  <si>
+    <t>1305-62-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白色粉末状固体
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用于制漂白粉，硬水软化剂，改良土壤酸性，自来水消毒澄清剂及建筑工业等
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6608,29 +6371,15 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">熟石灰 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcium Hydroxide
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ca(OH)2 </t>
-  </si>
-  <si>
-    <t>1305-62-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白色粉末状固体
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用于制漂白粉，硬水软化剂，改良土壤酸性，自来水消毒澄清剂及建筑工业等
-</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重金属捕捉剂</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6640,24 +6389,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重金属捕捉剂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+  </si>
+  <si>
+    <t>2_13.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">重金属捕捉剂是一种与重金属离子强力螯合的化工药剂，因能在常温和很宽的PH值条件范围内，与废水中的Cu2+、Cd2+、Hg2+、Pb2+、Mn2+、Ni2+、Zn2+、Cr3+等各种重金属离子进行化学反应，并在短时间内迅速生成不溶性、低含水量、容易过滤去除的絮状沉淀，从而达到从污水中去除重金属离子的化学品被称为重金属捕捉剂。
@@ -6674,16 +6408,7 @@
 </t>
   </si>
   <si>
-    <t>产品详情</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>二丁基羟基甲苯（</t>
     </r>
     <r>
@@ -6706,6 +6431,9 @@
     </r>
   </si>
   <si>
+    <t>3_0.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6804,6 +6532,9 @@
     <t>乙酸钠</t>
   </si>
   <si>
+    <t>3_1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">乙酸钠
 </t>
   </si>
@@ -6932,6 +6663,9 @@
     <t>甜蜜素</t>
   </si>
   <si>
+    <t>3_2.jpg</t>
+  </si>
+  <si>
     <t>白色透明晶体</t>
   </si>
   <si>
@@ -7038,12 +6772,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>食品级</t>
     </r>
     <r>
@@ -7066,6 +6794,9 @@
     </r>
   </si>
   <si>
+    <t>3_3.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7242,6 +6973,9 @@
   </si>
   <si>
     <t>食用消泡剂</t>
+  </si>
+  <si>
+    <t>3_4.jpg</t>
   </si>
   <si>
     <r>
@@ -7319,6 +7053,9 @@
     <t>食用甘油</t>
   </si>
   <si>
+    <t>3_5.jpg</t>
+  </si>
+  <si>
     <t>食品中加入甘油，通常是作为一种甜味剂和保湿物质，使食品爽滑可口。
 应用范围：果汁、果醋，果酒，腌腊制品、肉干、香肠，果脯，烟草，酒类</t>
   </si>
@@ -7326,6 +7063,9 @@
     <t>麦芽糖浆</t>
   </si>
   <si>
+    <t>3_6.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7357,8 +7097,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">一水柠檬酸
-</t>
+    <t>一水柠檬酸</t>
+  </si>
+  <si>
+    <t>3_7.jpg</t>
   </si>
   <si>
     <t>柠檬酸</t>
@@ -7602,8 +7344,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">无水柠檬酸
-</t>
+    <t>无水柠檬酸</t>
+  </si>
+  <si>
+    <t>3_8.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Citric Acid Anhydrous
@@ -7989,12 +7733,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>食用片碱（氢氧化钠）</t>
     </r>
     <r>
@@ -8008,6 +7746,9 @@
     </r>
   </si>
   <si>
+    <t>3_9.jpg</t>
+  </si>
+  <si>
     <t>NaOH</t>
   </si>
   <si>
@@ -8020,7 +7761,13 @@
     <t>食用纯碱（碳酸钠）</t>
   </si>
   <si>
+    <t>3_10.jpg</t>
+  </si>
+  <si>
     <t>食用明矾</t>
+  </si>
+  <si>
+    <t>3_11.jpg</t>
   </si>
   <si>
     <r>
@@ -8190,6 +7937,9 @@
     </r>
   </si>
   <si>
+    <t>3_12.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -8488,6 +8238,9 @@
     <t>玉米淀粉</t>
   </si>
   <si>
+    <t>3_13.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -8571,8 +8324,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">明胶
-</t>
+    <t>明胶</t>
+  </si>
+  <si>
+    <t>3_14.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Gelatin
@@ -8805,6 +8560,12 @@
     <t>无水葡萄糖</t>
   </si>
   <si>
+    <t>3_15.jpg</t>
+  </si>
+  <si>
+    <t>3_16.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -8949,10 +8710,16 @@
     <t>化学试剂</t>
   </si>
   <si>
-    <t>实验室实验仪器</t>
+    <t>4_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>光引发剂</t>
+  </si>
+  <si>
+    <t>5_1.jpg</t>
   </si>
 </sst>
 </file>
@@ -9002,7 +8769,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9013,25 +8816,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9044,30 +8833,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9089,9 +8855,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9105,16 +8878,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9128,23 +8901,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9165,7 +8932,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9177,73 +9088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9255,31 +9100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9291,61 +9112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9359,43 +9126,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9434,6 +9169,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -9447,164 +9223,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9622,11 +9389,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9634,14 +9401,20 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9649,6 +9422,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9995,989 +9779,1175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:9">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="42" customHeight="1" spans="1:7">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" ht="42" customHeight="1" spans="1:9">
+      <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="22"/>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:7">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    <row r="3" ht="42" customHeight="1" spans="1:9">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="C3" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="22"/>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:7">
-      <c r="A4" s="14" t="s">
+    <row r="4" ht="42" customHeight="1" spans="1:9">
+      <c r="A4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="1:9">
+      <c r="A5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:9">
+      <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:9">
+      <c r="A7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:9">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:9">
+      <c r="A9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:9">
+      <c r="A10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" ht="42" customHeight="1" spans="1:9">
+      <c r="A11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:9">
+      <c r="A12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:9">
+      <c r="A13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="E13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="H13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="22"/>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:7">
-      <c r="A5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>30</v>
-      </c>
+    <row r="14" ht="42" customHeight="1" spans="1:9">
+      <c r="A14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="22"/>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>36</v>
-      </c>
+    <row r="15" ht="42" customHeight="1" spans="1:9">
+      <c r="A15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="22"/>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:7">
-      <c r="A7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>43</v>
-      </c>
+    <row r="16" ht="42" customHeight="1" spans="1:9">
+      <c r="A16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="22"/>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:7">
-      <c r="A8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>50</v>
-      </c>
+    <row r="17" ht="42" customHeight="1" spans="1:9">
+      <c r="A17" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="22"/>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:7">
-      <c r="A9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>56</v>
-      </c>
+    <row r="18" ht="42" customHeight="1" spans="1:9">
+      <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="22"/>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>63</v>
-      </c>
+    <row r="19" ht="42" customHeight="1" spans="1:9">
+      <c r="A19" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="22"/>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>69</v>
-      </c>
+    <row r="20" ht="42" customHeight="1" spans="1:9">
+      <c r="A20" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="22"/>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:7">
-      <c r="A12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>74</v>
-      </c>
+    <row r="21" ht="42" customHeight="1" spans="1:9">
+      <c r="A21" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="22"/>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:7">
-      <c r="A13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>79</v>
-      </c>
+    <row r="22" ht="42" customHeight="1" spans="1:9">
+      <c r="A22" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="22"/>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:7">
-      <c r="A14" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>86</v>
-      </c>
+    <row r="23" ht="42" customHeight="1" spans="1:9">
+      <c r="A23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="22"/>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:7">
-      <c r="A15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>93</v>
-      </c>
+    <row r="24" ht="42" customHeight="1" spans="1:9">
+      <c r="A24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="22"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:7">
-      <c r="A16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>100</v>
-      </c>
+    <row r="25" ht="42" customHeight="1" spans="1:9">
+      <c r="A25" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="22"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>103</v>
-      </c>
+    <row r="26" ht="42" customHeight="1" spans="1:9">
+      <c r="A26" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="22"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:7">
-      <c r="A18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>110</v>
-      </c>
+    <row r="27" ht="42" customHeight="1" spans="1:9">
+      <c r="A27" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="22"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>117</v>
-      </c>
+    <row r="28" ht="42" customHeight="1" spans="1:9">
+      <c r="A28" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="22"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>124</v>
-      </c>
+    <row r="29" ht="42" customHeight="1" spans="1:9">
+      <c r="A29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" s="22"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:7">
-      <c r="A21" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>131</v>
-      </c>
+    <row r="30" ht="42" customHeight="1" spans="1:9">
+      <c r="A30" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30" s="22"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:7">
-      <c r="A22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>138</v>
-      </c>
+    <row r="31" ht="42" customHeight="1" spans="1:9">
+      <c r="A31" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="22"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>144</v>
-      </c>
+    <row r="32" ht="42" customHeight="1" spans="1:9">
+      <c r="A32" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="22"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:7">
-      <c r="A24" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>150</v>
-      </c>
+    <row r="33" ht="42" customHeight="1" spans="1:9">
+      <c r="A33" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I33" s="22"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:7">
-      <c r="A25" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>156</v>
-      </c>
+    <row r="34" ht="42" customHeight="1" spans="1:9">
+      <c r="A34" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="22"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:7">
-      <c r="A26" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>163</v>
-      </c>
+    <row r="35" ht="42" customHeight="1" spans="1:9">
+      <c r="A35" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="22"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>169</v>
-      </c>
+    <row r="36" ht="42" customHeight="1" spans="1:9">
+      <c r="A36" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="22"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:7">
-      <c r="A28" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>175</v>
-      </c>
+    <row r="37" ht="42" customHeight="1" spans="1:9">
+      <c r="A37" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I37" s="22"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:7">
-      <c r="A29" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>182</v>
-      </c>
+    <row r="38" ht="42" customHeight="1" spans="1:9">
+      <c r="A38" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="I38" s="22"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>188</v>
-      </c>
+    <row r="39" ht="42" customHeight="1" spans="1:9">
+      <c r="A39" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="I39" s="22"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:7">
-      <c r="A31" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>195</v>
-      </c>
+    <row r="40" ht="42" customHeight="1" spans="1:9">
+      <c r="A40" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I40" s="22"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:7">
-      <c r="A32" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>200</v>
-      </c>
+    <row r="41" ht="42" customHeight="1" spans="1:9">
+      <c r="A41" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I41" s="22"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:7">
-      <c r="A33" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>205</v>
-      </c>
+    <row r="42" ht="42" customHeight="1" spans="1:9">
+      <c r="A42" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:7">
-      <c r="A34" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>205</v>
-      </c>
+    <row r="43" ht="42" customHeight="1" spans="1:9">
+      <c r="A43" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="I43" s="22"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:7">
-      <c r="A35" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>214</v>
-      </c>
+    <row r="44" ht="42" customHeight="1" spans="1:9">
+      <c r="A44" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="I44" s="22"/>
     </row>
-    <row r="36" ht="42" customHeight="1" spans="1:7">
-      <c r="A36" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" ht="42" customHeight="1" spans="1:7">
-      <c r="A37" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" ht="42" customHeight="1" spans="1:7">
-      <c r="A38" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" t="s">
-        <v>233</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" ht="42" customHeight="1" spans="1:7">
-      <c r="A39" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" t="s">
-        <v>240</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" ht="42" customHeight="1" spans="1:7">
-      <c r="A40" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E40" t="s">
-        <v>246</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" ht="42" customHeight="1" spans="1:7">
-      <c r="A41" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" t="s">
-        <v>249</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" ht="42" customHeight="1" spans="1:7">
-      <c r="A42" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
-      <c r="D42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" ht="42" customHeight="1" spans="1:7">
-      <c r="A43" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="14"/>
-      <c r="D43" t="s">
-        <v>257</v>
-      </c>
-      <c r="E43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" ht="42" customHeight="1" spans="1:7">
-      <c r="A44" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14"/>
-      <c r="D44" t="s">
-        <v>262</v>
-      </c>
-      <c r="E44" t="s">
-        <v>263</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" ht="42" customHeight="1" spans="1:7">
-      <c r="A45" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="14"/>
-      <c r="D45" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>270</v>
-      </c>
+    <row r="45" ht="42" customHeight="1" spans="1:9">
+      <c r="A45" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10989,561 +10959,644 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="37.375" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:9">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>276</v>
-      </c>
+    <row r="2" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A3" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>279</v>
+    <row r="3" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A3" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>280</v>
+    <row r="4" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>326</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>285</v>
+        <v>327</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>286</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="8"/>
     </row>
-    <row r="5" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E5" s="11">
+    <row r="5" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="14">
         <v>2594446</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>292</v>
+      <c r="G5" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="11">
+    <row r="6" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="14">
         <v>2594446</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>297</v>
+      <c r="G6" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" s="11">
+    <row r="7" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" s="14">
         <v>2594446</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>300</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>302</v>
+        <v>350</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>303</v>
+    <row r="8" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>308</v>
+        <v>354</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>309</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>314</v>
+    <row r="9" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A9" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I9" s="8"/>
     </row>
-    <row r="10" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>316</v>
+    <row r="10" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>321</v>
+        <v>369</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>322</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="8"/>
     </row>
-    <row r="11" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>326</v>
+    <row r="11" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>327</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="8"/>
     </row>
-    <row r="12" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>328</v>
+    <row r="12" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A12" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" s="11">
+        <v>383</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="14">
         <v>2120447</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>333</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="I12" s="8"/>
     </row>
-    <row r="13" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>334</v>
+    <row r="13" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>339</v>
+        <v>390</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>340</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="8"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A14" s="7" t="s">
-        <v>341</v>
+    <row r="14" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>346</v>
+        <v>398</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>347</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="I14" s="8"/>
     </row>
-    <row r="15" s="6" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A15" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="8" t="s">
-        <v>350</v>
-      </c>
+    <row r="15" s="6" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A15" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+    <row r="16" ht="42" customHeight="1" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="18"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+    <row r="17" ht="42" customHeight="1" spans="1:8">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:7">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+    <row r="18" ht="42" customHeight="1" spans="1:8">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+    <row r="19" ht="42" customHeight="1" spans="1:8">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+    <row r="20" ht="42" customHeight="1" spans="1:8">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+    <row r="21" ht="42" customHeight="1" spans="1:8">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+    <row r="22" ht="42" customHeight="1" spans="1:8">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+    <row r="23" ht="42" customHeight="1" spans="1:8">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+    <row r="24" ht="42" customHeight="1" spans="1:8">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+    <row r="25" ht="42" customHeight="1" spans="1:8">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
+    <row r="26" ht="42" customHeight="1" spans="1:8">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
+    <row r="27" ht="42" customHeight="1" spans="1:8">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
+    <row r="28" ht="42" customHeight="1" spans="1:8">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+    <row r="29" ht="42" customHeight="1" spans="1:8">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+    <row r="30" ht="42" customHeight="1" spans="1:8">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:7">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+    <row r="31" ht="42" customHeight="1" spans="1:8">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:7">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+    <row r="32" ht="42" customHeight="1" spans="1:8">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:7">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+    <row r="33" ht="42" customHeight="1" spans="1:8">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:7">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
+    <row r="34" ht="42" customHeight="1" spans="1:8">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:7">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
+    <row r="35" ht="42" customHeight="1" spans="1:8">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
     </row>
-    <row r="36" ht="42" customHeight="1" spans="1:7">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+    <row r="36" ht="42" customHeight="1" spans="1:8">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
-    <row r="37" ht="42" customHeight="1" spans="1:7">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
+    <row r="37" ht="42" customHeight="1" spans="1:8">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
     </row>
-    <row r="38" ht="42" customHeight="1" spans="1:7">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
+    <row r="38" ht="42" customHeight="1" spans="1:8">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
     </row>
-    <row r="39" ht="42" customHeight="1" spans="1:7">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
+    <row r="39" ht="42" customHeight="1" spans="1:8">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
     </row>
-    <row r="40" ht="42" customHeight="1" spans="1:7">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
+    <row r="40" ht="42" customHeight="1" spans="1:8">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
     </row>
-    <row r="41" ht="42" customHeight="1" spans="1:7">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="41" ht="42" customHeight="1" spans="1:8">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
     </row>
-    <row r="42" ht="42" customHeight="1" spans="1:7">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
+    <row r="42" ht="42" customHeight="1" spans="1:8">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
     </row>
-    <row r="43" ht="42" customHeight="1" spans="1:7">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
+    <row r="43" ht="42" customHeight="1" spans="1:8">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B15:G15"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -11552,26 +11605,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="44.125" customWidth="1"/>
+    <col min="1" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
+    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -11580,10 +11635,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -11592,262 +11647,316 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>351</v>
+    <row r="2" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>355</v>
+        <v>409</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>361</v>
+    <row r="3" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
-        <v>363</v>
-      </c>
+    <row r="4" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>423</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>365</v>
+    <row r="5" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>425</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>426</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>370</v>
+    <row r="6" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>373</v>
+        <v>432</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9" t="s">
-        <v>375</v>
+    <row r="7" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>377</v>
+    <row r="8" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>441</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+    <row r="9" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
       <c r="A9" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>383</v>
+        <v>442</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+    <row r="10" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>449</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>391</v>
+    <row r="11" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>392</v>
+        <v>458</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+    <row r="12" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
-    <row r="13" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>395</v>
+    <row r="13" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>464</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A14" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="D14" s="10"/>
+    <row r="14" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>398</v>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
-      <c r="A15" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G15" s="7"/>
+    <row r="15" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
-    <row r="16" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+    <row r="16" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>472</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>476</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+    <row r="17" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+        <v>477</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
-    <row r="18" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:7">
+    <row r="18" s="6" customFormat="1" ht="86.25" customHeight="1" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>219</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -11859,23 +11968,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="1" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -11884,10 +11993,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -11896,25 +12005,33 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>481</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>482</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>408</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11925,22 +12042,24 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -11949,10 +12068,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -11961,10 +12080,16 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>409</v>
+        <v>484</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
